--- a/Confronto_parametri.xlsx
+++ b/Confronto_parametri.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Legenda" sheetId="1" state="visible" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>Legenda</t>
   </si>
@@ -56,6 +56,12 @@
   </si>
   <si>
     <t xml:space="preserve">Temperature separate (α1*T1 + α2*T2) (*)</t>
+  </si>
+  <si>
+    <t>#.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Media temperature lungo  x (asse longitudinale) (T1+T2+T3+T4)/4</t>
   </si>
   <si>
     <t xml:space="preserve">{T1, α1} = termocoppia interna</t>
@@ -180,6 +186,9 @@
     <t>3.1</t>
   </si>
   <si>
+    <t xml:space="preserve">std[epsilon0] =   ;   std[alpha] =  ;   std[m] =     ;     std[sigma_eps] =  </t>
+  </si>
+  <si>
     <t>3.2</t>
   </si>
   <si>
@@ -200,18 +209,84 @@
   <si>
     <t>4.4</t>
   </si>
+  <si>
+    <t>Prismi</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">α  [mm/°C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">σε [mm]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF44546A"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t xml:space="preserve">σε [</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color rgb="FF44546A"/>
+        <rFont val="Andale Mono"/>
+      </rPr>
+      <t>mm]</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">x0  [mm]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m/day  [mm/day]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m/year  [mm/year]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">α1 [mm/°C]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">α2 [mm/°C]</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>(T1+T2+T3+T4)/4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E[x0] = -3.31081;     E[m] = -0.00224;      E[alpha] = 0.45069</t>
+  </si>
+  <si>
+    <t xml:space="preserve">std[x0] = 0.11283;   std[m] = 0.00011;    std[alpha] = 0.00530</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -3.9474;</t>
+  </si>
+  <si>
+    <t>3.5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="5">
     <numFmt numFmtId="160" formatCode="0.00000"/>
     <numFmt numFmtId="161" formatCode="#,##0.0000"/>
     <numFmt numFmtId="162" formatCode="0.000"/>
     <numFmt numFmtId="163" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="15">
     <font>
       <name val="Calibri"/>
       <color theme="1"/>
@@ -229,6 +304,18 @@
       <name val="Calibri"/>
       <i/>
       <color rgb="FF7F7F7F"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF006100"/>
+      <sz val="11.000000"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <color rgb="FF9C0006"/>
       <sz val="11.000000"/>
       <scheme val="minor"/>
     </font>
@@ -308,11 +395,25 @@
         <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
-    <fill/>
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="26"/>
         <bgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
     <fill>
@@ -327,20 +428,8 @@
         <bgColor rgb="FFDEEAF6"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor rgb="FFC6EFCE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="18">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -527,21 +616,173 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFACCCE9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFACCCE9"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFACCCE9"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFACCCE9"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFACCCE9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFACCCE9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="6">
+  <cellStyleXfs count="8">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="0" fillId="2" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="0" fillId="3" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
     <xf fontId="1" fillId="4" borderId="1" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf fontId="2" fillId="5" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0"/>
     <xf fontId="0" fillId="6" borderId="2" numFmtId="0" applyNumberFormat="0" applyFont="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
+    <xf fontId="4" fillId="8" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="120">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="3" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf fontId="0" fillId="2" borderId="4" numFmtId="0" xfId="1" applyFill="1" applyBorder="1"/>
@@ -558,144 +799,273 @@
     <xf fontId="1" fillId="4" borderId="1" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf fontId="2" fillId="6" borderId="2" numFmtId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="2" fillId="6" borderId="2" numFmtId="0" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="4" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="7" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf fontId="5" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="3" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="3" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="6" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="7" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="8" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="6" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="9" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="7" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="9" fillId="0" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="8" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="8" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="4" fillId="7" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="0" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="9" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="7" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="9" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="8" borderId="9" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="9" fillId="4" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="6" fillId="10" borderId="9" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="11" fillId="4" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="9" fillId="4" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="11" fillId="4" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="10" fillId="9" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="12" fillId="7" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="9" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="11" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="11" fillId="10" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="13" fillId="8" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="4" fillId="8" borderId="7" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="12" fillId="4" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="10" borderId="7" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="14" fillId="4" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="12" fillId="4" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="4" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="12" fillId="4" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="14" fillId="4" borderId="9" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="7" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="6" fillId="9" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="8" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf fontId="9" fillId="4" borderId="15" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="6" fillId="10" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf fontId="11" fillId="4" borderId="15" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="14" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="14" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="10" fillId="9" borderId="14" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="12" fillId="7" borderId="14" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="9" fillId="4" borderId="16" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="7" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="11" fillId="4" borderId="16" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="8" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="9" fillId="4" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="6" fillId="10" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="11" fillId="4" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="7" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="15" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="11" fillId="4" borderId="15" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="14" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="14" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="9" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="9" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="14" numFmtId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="14" numFmtId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="0" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="0" numFmtId="164" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="0" numFmtId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="0" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="9" borderId="0" numFmtId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="0" numFmtId="161" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="9" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="163" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="10" borderId="0" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="160" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="17" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="11" fillId="4" borderId="17" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="9" fillId="4" borderId="6" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="6" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="4" fillId="8" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf fontId="9" fillId="4" borderId="0" numFmtId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="11" fillId="4" borderId="0" numFmtId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf fontId="4" fillId="8" borderId="6" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="4" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf fontId="4" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="11" fillId="4" borderId="0" numFmtId="163" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="7" fillId="0" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="5" fillId="0" borderId="18" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="9" fillId="0" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="10" fillId="0" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="10" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="0" borderId="24" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="6" fillId="10" borderId="25" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="11" fillId="4" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="26" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="27" numFmtId="160" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="27" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="28" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="7" borderId="0" numFmtId="160" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="160" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="29" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="14" fillId="4" borderId="6" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="30" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="5" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="5" numFmtId="160" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="6" fillId="10" borderId="13" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="4" borderId="28" numFmtId="160" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="4" numFmtId="160" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="28" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="9" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="16" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="13" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="16" numFmtId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="26" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="27" numFmtId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="27" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="1" fillId="4" borderId="0" numFmtId="163" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="31" numFmtId="160" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="7" borderId="6" numFmtId="160" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="3" fillId="7" borderId="6" numFmtId="0" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="13" numFmtId="162" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="11" fillId="4" borderId="16" numFmtId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="14" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="15" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
+    <xf fontId="6" fillId="0" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="16" numFmtId="0" xfId="0" applyBorder="1">
+      <protection hidden="0" locked="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
     <cellStyle name="40% - Accent2" xfId="2" builtinId="35"/>
     <cellStyle name="Output" xfId="3" builtinId="21"/>
     <cellStyle name="Explanatory Text" xfId="4" builtinId="53"/>
     <cellStyle name="Note" xfId="5" builtinId="10"/>
+    <cellStyle name="Good" xfId="6" builtinId="26"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1200,15 +1570,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="8.7100000000000009"/>
     <col customWidth="1" min="2" max="2" width="22.43"/>
@@ -1315,7 +1685,16 @@
       <c r="F9" s="8"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="B10" s="2"/>
+      <c r="A10" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="8"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
       <c r="B11" s="2"/>
@@ -1327,29 +1706,29 @@
       <c r="B13" s="2"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="9" t="s">
-        <v>14</v>
+      <c r="A14" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="B14" s="10"/>
       <c r="C14" s="10"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="9" t="s">
-        <v>15</v>
+      <c r="A15" s="10" t="s">
+        <v>17</v>
       </c>
       <c r="B15" s="10"/>
       <c r="C15" s="10"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="9" t="s">
-        <v>16</v>
+      <c r="A16" s="10" t="s">
+        <v>18</v>
       </c>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="9" t="s">
-        <v>17</v>
+      <c r="A17" s="10" t="s">
+        <v>19</v>
       </c>
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
@@ -1360,22 +1739,22 @@
       <c r="C18" s="10"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="9" t="s">
-        <v>18</v>
+      <c r="A19" s="10" t="s">
+        <v>20</v>
       </c>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="9" t="s">
-        <v>19</v>
+      <c r="A20" s="10" t="s">
+        <v>21</v>
       </c>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="9" t="s">
-        <v>20</v>
+      <c r="A21" s="10" t="s">
+        <v>22</v>
       </c>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -4318,15 +4697,16 @@
       <c r="B1000" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
     <mergeCell ref="B9:F9"/>
+    <mergeCell ref="B10:F10"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4334,15 +4714,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr applyStyles="0" showOutlineSymbols="1" summaryBelow="1" summaryRight="1"/>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100">
+    <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="14.43" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col customWidth="1" min="1" max="2" width="8.7100000000000009"/>
     <col customWidth="1" min="3" max="3" width="9.1400000000000006"/>
@@ -4352,12 +4732,12 @@
     <col customWidth="1" min="7" max="7" width="12.43"/>
     <col customWidth="1" min="8" max="9" width="10.57"/>
     <col customWidth="1" min="10" max="10" width="8.7100000000000009"/>
-    <col customWidth="1" min="11" max="11" width="14.57"/>
-    <col customWidth="1" min="12" max="12" width="15.140000000000001"/>
+    <col bestFit="1" customWidth="1" min="11" max="11" width="16.421875"/>
+    <col bestFit="1" customWidth="1" min="12" max="12" width="17.7109375"/>
     <col customWidth="1" min="13" max="13" width="10.43"/>
     <col customWidth="1" min="14" max="14" width="11.43"/>
     <col customWidth="1" min="15" max="15" width="17.140000000000001"/>
-    <col customWidth="1" min="16" max="16" width="12.43"/>
+    <col bestFit="1" customWidth="1" min="16" max="16" width="15.26171875"/>
     <col customWidth="1" min="17" max="17" width="10.859999999999999"/>
     <col customWidth="1" min="18" max="37" width="8.7100000000000009"/>
   </cols>
@@ -4367,7 +4747,7 @@
       <c r="B1" s="12"/>
       <c r="C1" s="13"/>
       <c r="D1" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
@@ -4375,7 +4755,7 @@
       <c r="H1" s="15"/>
       <c r="I1" s="16"/>
       <c r="J1" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K1" s="14"/>
       <c r="L1" s="14"/>
@@ -4408,32 +4788,32 @@
     <row r="2" ht="14.25" customHeight="1">
       <c r="C2" s="18"/>
       <c r="D2" s="19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F2" s="20"/>
       <c r="G2" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H2" s="20"/>
       <c r="I2" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="J2" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="L2" s="20"/>
       <c r="M2" s="19" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N2" s="20"/>
       <c r="O2" s="19" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P2" s="17"/>
       <c r="Q2" s="17"/>
@@ -4443,35 +4823,35 @@
       <c r="B3" s="11"/>
       <c r="C3" s="22"/>
       <c r="D3" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F3" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G3" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I3" s="24"/>
       <c r="J3" s="23" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K3" s="23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="L3" s="23" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="M3" s="23" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="N3" s="23" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="O3" s="11"/>
       <c r="P3" s="17"/>
@@ -4499,13 +4879,13 @@
     </row>
     <row r="4" ht="14.25" customHeight="1">
       <c r="A4" s="25" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B4" s="26">
         <v>0</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="28">
         <v>16.204930000000001</v>
@@ -4537,12 +4917,16 @@
       </c>
       <c r="N4" s="32"/>
       <c r="O4" s="33"/>
+      <c r="P4">
+        <f>F4*2000</f>
+        <v>-47968.300000000003</v>
+      </c>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="32"/>
       <c r="B5" s="29"/>
       <c r="C5" s="27" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D5" s="28">
         <v>15.949920000000001</v>
@@ -4579,7 +4963,7 @@
       <c r="A6" s="32"/>
       <c r="B6" s="29"/>
       <c r="C6" s="27" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="28">
         <v>16.07733</v>
@@ -4616,7 +5000,7 @@
       <c r="A7" s="32"/>
       <c r="B7" s="35"/>
       <c r="C7" s="36" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="28">
         <v>18.20514</v>
@@ -4659,7 +5043,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D8" s="42">
         <v>-42.03284</v>
@@ -4696,7 +5080,7 @@
       <c r="A9" s="32"/>
       <c r="B9" s="29"/>
       <c r="C9" s="41" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" s="48">
         <v>-30.178809999999999</v>
@@ -4733,7 +5117,7 @@
       <c r="A10" s="32"/>
       <c r="B10" s="29"/>
       <c r="C10" s="41" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D10" s="48">
         <v>6.1156499999999996</v>
@@ -4770,7 +5154,7 @@
       <c r="A11" s="32"/>
       <c r="B11" s="35"/>
       <c r="C11" s="49" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D11" s="48">
         <v>-31.137630000000001</v>
@@ -4813,7 +5197,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="41" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D12" s="42"/>
       <c r="E12" s="44"/>
@@ -4838,7 +5222,7 @@
       <c r="A13" s="32"/>
       <c r="B13" s="29"/>
       <c r="C13" s="41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D13" s="48"/>
       <c r="E13" s="28"/>
@@ -4864,7 +5248,7 @@
       <c r="A14" s="32"/>
       <c r="B14" s="29"/>
       <c r="C14" s="41" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" s="48"/>
       <c r="E14" s="28"/>
@@ -4889,7 +5273,7 @@
       <c r="A15" s="32"/>
       <c r="B15" s="35"/>
       <c r="C15" s="49" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D15" s="48"/>
       <c r="E15" s="28"/>
@@ -4909,168 +5293,175 @@
       <c r="M15" s="28"/>
       <c r="N15" s="30"/>
       <c r="O15" s="52"/>
+      <c r="Q15" s="53"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
       <c r="A16" s="25" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B16" s="40">
         <v>3</v>
       </c>
       <c r="C16" s="41" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="53">
-        <v>-1.8182</v>
+        <v>50</v>
+      </c>
+      <c r="D16" s="54">
+        <v>15.7723</v>
       </c>
       <c r="E16" s="43">
-        <v>-0.091075294900000006</v>
+        <v>-0.063478417400000001</v>
       </c>
       <c r="F16" s="44">
         <f t="shared" si="0"/>
-        <v>-33.242482639999999</v>
-      </c>
-      <c r="G16" s="54">
-        <v>12.32</v>
+        <v>-23.169622351000001</v>
+      </c>
+      <c r="G16" s="55">
+        <v>10.721</v>
       </c>
       <c r="H16" s="45"/>
-      <c r="I16" s="55">
-        <v>28.951000000000001</v>
+      <c r="I16" s="56">
+        <v>28.57</v>
       </c>
       <c r="J16" s="44">
-        <v>1.9197</v>
-      </c>
-      <c r="K16" s="56">
-        <v>0.0055199003999999996</v>
+        <v>2.5366</v>
+      </c>
+      <c r="K16" s="57">
+        <v>0.0065364354000000003</v>
       </c>
       <c r="L16" s="44">
         <f t="shared" si="1"/>
-        <v>2.014763646</v>
+        <v>2.3857989210000001</v>
       </c>
       <c r="M16" s="44">
-        <v>0.13700000000000001</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="N16" s="45"/>
       <c r="O16" s="33">
-        <v>0.79200000000000004</v>
+        <v>0.77600000000000002</v>
+      </c>
+      <c r="Q16" s="53" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1">
       <c r="A17" s="32"/>
       <c r="B17" s="29"/>
       <c r="C17" s="41" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D17" s="48">
-        <v>-2.6156000000000001</v>
-      </c>
-      <c r="E17" s="28">
-        <v>-0.089323566899999998</v>
+        <v>15.448399999999999</v>
+      </c>
+      <c r="E17" s="58">
+        <v>-0.0623391664</v>
       </c>
       <c r="F17" s="28">
-        <f t="shared" ref="F17:F23" si="2">E17*365</f>
-        <v>-32.60310192</v>
-      </c>
-      <c r="G17" s="57">
-        <v>12.323</v>
+        <f t="shared" ref="F17:F48" si="2">E17*365</f>
+        <v>-22.753795736000001</v>
+      </c>
+      <c r="G17" s="59">
+        <v>10.727</v>
       </c>
       <c r="H17" s="29"/>
-      <c r="I17" s="55">
-        <v>29.256</v>
-      </c>
-      <c r="J17" s="58">
-        <v>1.8100000000000001</v>
-      </c>
-      <c r="K17" s="59">
-        <v>0.0050702891999999996</v>
-      </c>
-      <c r="L17" s="60">
-        <f t="shared" ref="L17:L23" si="3">K17*365</f>
-        <v>1.8506555579999999</v>
-      </c>
-      <c r="M17" s="60">
-        <v>0.13300000000000001</v>
-      </c>
-      <c r="N17" s="29"/>
-      <c r="O17" s="33">
-        <v>0.72099999999999997</v>
-      </c>
+      <c r="I17" s="56">
+        <v>29.454000000000001</v>
+      </c>
+      <c r="J17" s="60">
+        <v>2.1777000000000002</v>
+      </c>
+      <c r="K17" s="61">
+        <v>0.0061145638000000002</v>
+      </c>
+      <c r="L17" s="62">
+        <f t="shared" ref="L17:L48" si="3">K17*365</f>
+        <v>2.2318157869999999</v>
+      </c>
+      <c r="M17" s="62">
+        <v>0.121</v>
+      </c>
+      <c r="N17" s="63"/>
+      <c r="O17" s="59">
+        <v>0.85999999999999999</v>
+      </c>
+      <c r="Q17" s="53"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
       <c r="A18" s="32"/>
       <c r="B18" s="29"/>
       <c r="C18" s="41" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D18" s="48">
-        <v>-2.7086000000000001</v>
-      </c>
-      <c r="E18" s="28">
-        <v>-0.089621414400000002</v>
+        <v>15.767899999999999</v>
+      </c>
+      <c r="E18" s="58">
+        <v>-0.063917360899999998</v>
       </c>
       <c r="F18" s="28">
         <f t="shared" si="2"/>
-        <v>-32.711816259999999</v>
-      </c>
-      <c r="G18" s="57">
-        <v>12.302</v>
+        <v>-23.329836728499998</v>
+      </c>
+      <c r="G18" s="59">
+        <v>10.711</v>
       </c>
       <c r="H18" s="29"/>
-      <c r="I18" s="55">
-        <v>29.140999999999998</v>
+      <c r="I18" s="56">
+        <v>28.728000000000002</v>
       </c>
       <c r="J18" s="28">
-        <v>2.3344999999999998</v>
-      </c>
-      <c r="K18" s="61">
-        <v>0.0063656748999999999</v>
-      </c>
-      <c r="L18" s="61">
+        <v>2.3050999999999999</v>
+      </c>
+      <c r="K18" s="62">
+        <v>0.0055884599000000004</v>
+      </c>
+      <c r="L18" s="62">
         <f t="shared" si="3"/>
-        <v>2.3234713390000001</v>
-      </c>
-      <c r="M18" s="61">
-        <v>0.158</v>
-      </c>
-      <c r="N18" s="29"/>
+        <v>2.0397878635</v>
+      </c>
+      <c r="M18" s="62">
+        <v>0.129</v>
+      </c>
+      <c r="N18" s="63"/>
       <c r="O18" s="33">
-        <v>0.70699999999999996</v>
-      </c>
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="Q18" s="64"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
       <c r="A19" s="32"/>
       <c r="B19" s="35"/>
       <c r="C19" s="49" t="s">
-        <v>51</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="63"/>
-      <c r="F19" s="63">
+        <v>54</v>
+      </c>
+      <c r="D19" s="65"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G19" s="64"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="35"/>
       <c r="I19" s="51"/>
-      <c r="J19" s="63"/>
-      <c r="K19" s="63"/>
-      <c r="L19" s="63">
+      <c r="J19" s="66"/>
+      <c r="K19" s="66"/>
+      <c r="L19" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M19" s="63"/>
-      <c r="N19" s="63"/>
+      <c r="M19" s="66"/>
+      <c r="N19" s="66"/>
       <c r="O19" s="52"/>
+      <c r="Q19" s="64"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
       <c r="A20" s="32"/>
       <c r="B20" s="40">
         <v>4</v>
       </c>
-      <c r="C20" s="65" t="s">
-        <v>52</v>
-      </c>
-      <c r="D20" s="53">
+      <c r="C20" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="54">
         <v>-18.275099999999998</v>
       </c>
       <c r="E20" s="43">
@@ -5080,17 +5471,17 @@
         <f t="shared" si="2"/>
         <v>-32.281459580000003</v>
       </c>
-      <c r="G20" s="54">
+      <c r="G20" s="55">
         <v>12.186999999999999</v>
       </c>
       <c r="H20" s="45"/>
-      <c r="I20" s="55">
+      <c r="I20" s="56">
         <v>49.731000000000002</v>
       </c>
       <c r="J20" s="44">
         <v>3.6697000000000002</v>
       </c>
-      <c r="K20" s="56">
+      <c r="K20" s="57">
         <v>0.0094586730000000008</v>
       </c>
       <c r="L20" s="44">
@@ -5104,12 +5495,13 @@
       <c r="O20" s="33">
         <v>1.3260000000000001</v>
       </c>
+      <c r="Q20" s="64"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
       <c r="A21" s="32"/>
       <c r="B21" s="29"/>
-      <c r="C21" s="65" t="s">
-        <v>53</v>
+      <c r="C21" s="41" t="s">
+        <v>56</v>
       </c>
       <c r="D21" s="48">
         <v>-31.203399999999998</v>
@@ -5121,17 +5513,17 @@
         <f t="shared" si="2"/>
         <v>-27.666843050000001</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="59">
         <v>12.226000000000001</v>
       </c>
       <c r="H21" s="29"/>
-      <c r="I21" s="55">
+      <c r="I21" s="56">
         <v>48.912999999999997</v>
       </c>
-      <c r="J21" s="58">
+      <c r="J21" s="68">
         <v>3.5760000000000001</v>
       </c>
-      <c r="K21" s="66">
+      <c r="K21" s="69">
         <v>0.0091837892000000004</v>
       </c>
       <c r="L21" s="28">
@@ -5145,12 +5537,13 @@
       <c r="O21" s="33">
         <v>1.383</v>
       </c>
+      <c r="Q21" s="64"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
       <c r="A22" s="32"/>
       <c r="B22" s="29"/>
-      <c r="C22" s="65" t="s">
-        <v>54</v>
+      <c r="C22" s="41" t="s">
+        <v>57</v>
       </c>
       <c r="D22" s="48">
         <v>33.941800000000001</v>
@@ -5162,11 +5555,11 @@
         <f t="shared" si="2"/>
         <v>-30.07801203</v>
       </c>
-      <c r="G22" s="57">
+      <c r="G22" s="59">
         <v>12.295</v>
       </c>
       <c r="H22" s="29"/>
-      <c r="I22" s="55">
+      <c r="I22" s="56">
         <v>52.418999999999997</v>
       </c>
       <c r="J22" s="28">
@@ -5186,219 +5579,786 @@
       <c r="O22" s="33">
         <v>1.3440000000000001</v>
       </c>
+      <c r="Q22" s="64"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="67"/>
+      <c r="A23" s="70"/>
       <c r="B23" s="35"/>
-      <c r="C23" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" s="62"/>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63">
+      <c r="C23" s="49" t="s">
+        <v>58</v>
+      </c>
+      <c r="D23" s="65"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G23" s="64"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="35"/>
       <c r="I23" s="51"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63">
+      <c r="J23" s="66"/>
+      <c r="K23" s="66"/>
+      <c r="L23" s="66">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M23" s="63"/>
-      <c r="N23" s="63"/>
+      <c r="M23" s="66"/>
+      <c r="N23" s="66"/>
       <c r="O23" s="52"/>
+      <c r="Q23" s="64"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
       <c r="C24" s="18"/>
       <c r="H24" s="11"/>
       <c r="I24" s="18"/>
       <c r="N24" s="18"/>
+      <c r="Q24" s="64"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
       <c r="C25" s="18"/>
       <c r="H25" s="11"/>
       <c r="I25" s="18"/>
       <c r="N25" s="18"/>
+      <c r="Q25" s="64"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
       <c r="C26" s="18"/>
-      <c r="D26" s="69"/>
+      <c r="D26" s="71"/>
       <c r="H26" s="11"/>
       <c r="I26" s="18"/>
       <c r="N26" s="18"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
       <c r="C27" s="18"/>
-      <c r="D27" s="70"/>
+      <c r="D27" s="72"/>
       <c r="H27" s="11"/>
       <c r="I27" s="18"/>
       <c r="N27" s="18"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="C28" s="18"/>
-      <c r="H28" s="11"/>
+      <c r="A28" t="s">
+        <v>59</v>
+      </c>
       <c r="I28" s="18"/>
       <c r="N28" s="18"/>
     </row>
-    <row r="29" ht="14.25" customHeight="1">
-      <c r="C29" s="18"/>
-      <c r="H29" s="11"/>
+    <row r="29" ht="15">
       <c r="I29" s="18"/>
       <c r="N29" s="18"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="C30" s="18"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="18"/>
-      <c r="N30" s="18"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="13"/>
+      <c r="D30" s="73" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="15"/>
+      <c r="I30" s="16"/>
+      <c r="J30" s="73" t="s">
+        <v>24</v>
+      </c>
+      <c r="K30" s="1"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="17"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
+      <c r="A31" s="74"/>
+      <c r="B31" s="74"/>
       <c r="C31" s="18"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="18"/>
-      <c r="N31" s="18"/>
+      <c r="D31" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="75" t="s">
+        <v>60</v>
+      </c>
+      <c r="K31" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" s="19"/>
+      <c r="M31" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="N31" s="19"/>
+      <c r="O31" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" s="17"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="C32" s="18"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="18"/>
-      <c r="N32" s="18"/>
+      <c r="A32" s="12"/>
+      <c r="B32" s="12"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="77" t="s">
+        <v>65</v>
+      </c>
+      <c r="F32" s="77" t="s">
+        <v>66</v>
+      </c>
+      <c r="G32" s="77" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="77" t="s">
+        <v>68</v>
+      </c>
+      <c r="I32" s="78"/>
+      <c r="J32" s="79" t="s">
+        <v>64</v>
+      </c>
+      <c r="K32" s="80" t="s">
+        <v>65</v>
+      </c>
+      <c r="L32" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="M32" s="80" t="s">
+        <v>67</v>
+      </c>
+      <c r="N32" s="80" t="s">
+        <v>68</v>
+      </c>
+      <c r="O32" s="81"/>
+      <c r="P32" s="17"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="C33" s="18"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="18"/>
-      <c r="N33" s="18"/>
+      <c r="A33" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="26">
+        <v>0</v>
+      </c>
+      <c r="C33" s="82" t="s">
+        <v>37</v>
+      </c>
+      <c r="D33" s="83">
+        <v>-3.5619499999999999</v>
+      </c>
+      <c r="E33" s="44">
+        <v>-0.0023999999999999998</v>
+      </c>
+      <c r="F33" s="44">
+        <f t="shared" si="2"/>
+        <v>-0.87599999999999989</v>
+      </c>
+      <c r="G33" s="44">
+        <v>0.48487000000000002</v>
+      </c>
+      <c r="H33" s="44"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="84">
+        <v>0.12139</v>
+      </c>
+      <c r="K33" s="85">
+        <v>0.00012</v>
+      </c>
+      <c r="L33" s="85">
+        <f t="shared" si="3"/>
+        <v>0.043799999999999999</v>
+      </c>
+      <c r="M33" s="85">
+        <v>0.0057099999999999998</v>
+      </c>
+      <c r="N33" s="85"/>
+      <c r="O33" s="86"/>
+      <c r="P33" s="74"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="C34" s="18"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="18"/>
-      <c r="N34" s="18"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="29"/>
+      <c r="C34" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="48">
+        <v>-3.3698000000000001</v>
+      </c>
+      <c r="E34" s="28">
+        <v>-0.00231</v>
+      </c>
+      <c r="F34" s="28">
+        <f t="shared" si="2"/>
+        <v>-0.84314999999999996</v>
+      </c>
+      <c r="G34" s="28">
+        <v>0.50475999999999999</v>
+      </c>
+      <c r="H34" s="28"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="87">
+        <v>0.10259</v>
+      </c>
+      <c r="K34" s="88">
+        <v>0.0001</v>
+      </c>
+      <c r="L34" s="88">
+        <f t="shared" si="3"/>
+        <v>0.036500000000000005</v>
+      </c>
+      <c r="M34" s="88">
+        <v>0.0048900000000000002</v>
+      </c>
+      <c r="N34" s="88"/>
+      <c r="O34" s="33"/>
+      <c r="P34" s="74"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="C35" s="18"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="18"/>
-      <c r="N35" s="18"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="29"/>
+      <c r="C35" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="48">
+        <v>-3.4103300000000001</v>
+      </c>
+      <c r="E35" s="28">
+        <v>-0.0023600000000000001</v>
+      </c>
+      <c r="F35" s="28">
+        <f t="shared" si="2"/>
+        <v>-0.86140000000000005</v>
+      </c>
+      <c r="G35" s="28">
+        <v>0.49964999999999998</v>
+      </c>
+      <c r="H35" s="28"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="87">
+        <v>0.10825</v>
+      </c>
+      <c r="K35" s="89">
+        <v>0.0001</v>
+      </c>
+      <c r="L35" s="89">
+        <f t="shared" si="3"/>
+        <v>0.036500000000000005</v>
+      </c>
+      <c r="M35" s="90">
+        <v>0.0051399999999999996</v>
+      </c>
+      <c r="N35" s="89"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="74"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="C36" s="18"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="18"/>
-      <c r="N36" s="18"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" s="91">
+        <v>-3.4615300000000002</v>
+      </c>
+      <c r="E36" s="66">
+        <v>-0.0021900000000000001</v>
+      </c>
+      <c r="F36" s="28">
+        <f t="shared" si="2"/>
+        <v>-0.79935</v>
+      </c>
+      <c r="G36" s="92">
+        <v>0.54108000000000001</v>
+      </c>
+      <c r="H36" s="92"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="94">
+        <v>0.12156</v>
+      </c>
+      <c r="K36" s="95">
+        <v>0.00012</v>
+      </c>
+      <c r="L36" s="95">
+        <f t="shared" si="3"/>
+        <v>0.043799999999999999</v>
+      </c>
+      <c r="M36" s="96">
+        <v>0.0063400000000000001</v>
+      </c>
+      <c r="N36" s="96"/>
+      <c r="O36" s="97"/>
+      <c r="P36" s="74" t="s">
+        <v>70</v>
+      </c>
+      <c r="S36" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="C37" s="18"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="18"/>
-      <c r="N37" s="18"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="26">
+        <v>1</v>
+      </c>
+      <c r="C37" s="98" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="28"/>
+      <c r="H37" s="28"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="99"/>
+      <c r="K37" s="89"/>
+      <c r="L37" s="89"/>
+      <c r="M37" s="89"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="74"/>
+      <c r="S37" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="C38" s="18"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="18"/>
-      <c r="N38" s="18"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="29"/>
+      <c r="C38" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="48"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="28"/>
+      <c r="H38" s="28"/>
+      <c r="I38" s="28"/>
+      <c r="J38" s="101"/>
+      <c r="K38" s="89"/>
+      <c r="L38" s="89"/>
+      <c r="M38" s="89"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="74"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="C39" s="18"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="18"/>
-      <c r="N39" s="18"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="29"/>
+      <c r="C39" s="27" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="48"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="28"/>
+      <c r="H39" s="28"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="48"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="33"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="103"/>
+      <c r="P39" s="74"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="C40" s="18"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="18"/>
-      <c r="N40" s="18"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" s="65"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="93"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="65"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="66"/>
+      <c r="M40" s="93"/>
+      <c r="N40" s="38"/>
+      <c r="O40" s="103"/>
+      <c r="P40" s="74"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="C41" s="18"/>
-      <c r="H41" s="11"/>
-      <c r="I41" s="18"/>
-      <c r="N41" s="18"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="26">
+        <v>2</v>
+      </c>
+      <c r="C41" s="98" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="44"/>
+      <c r="I41" s="104"/>
+      <c r="J41" s="42"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="44"/>
+      <c r="M41" s="44"/>
+      <c r="N41" s="104"/>
+      <c r="O41" s="105"/>
+      <c r="P41" s="74"/>
+      <c r="R41" s="64"/>
     </row>
     <row r="42" ht="14.25" customHeight="1">
-      <c r="C42" s="18"/>
-      <c r="H42" s="11"/>
-      <c r="I42" s="18"/>
-      <c r="N42" s="18"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="29"/>
+      <c r="C42" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" s="48"/>
+      <c r="E42" s="28"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="28"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="48"/>
+      <c r="K42" s="28"/>
+      <c r="L42" s="28"/>
+      <c r="M42" s="28"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="103"/>
+      <c r="P42" s="74"/>
+      <c r="R42" s="64"/>
     </row>
     <row r="43" ht="14.25" customHeight="1">
-      <c r="C43" s="18"/>
-      <c r="H43" s="11"/>
-      <c r="I43" s="18"/>
-      <c r="N43" s="18"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="29"/>
+      <c r="C43" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" s="48"/>
+      <c r="E43" s="28"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="48"/>
+      <c r="K43" s="28"/>
+      <c r="L43" s="28"/>
+      <c r="M43" s="28"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="103"/>
+      <c r="P43" s="74"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="C44" s="18"/>
-      <c r="H44" s="11"/>
-      <c r="I44" s="18"/>
-      <c r="N44" s="18"/>
+      <c r="A44" s="70"/>
+      <c r="B44" s="35"/>
+      <c r="C44" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" s="65"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="66"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="51"/>
+      <c r="J44" s="48"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="28"/>
+      <c r="M44" s="28"/>
+      <c r="N44" s="30"/>
+      <c r="O44" s="91"/>
+      <c r="P44" s="74"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="C45" s="18"/>
-      <c r="H45" s="11"/>
-      <c r="I45" s="18"/>
-      <c r="N45" s="18"/>
+      <c r="A45" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" s="26">
+        <v>3</v>
+      </c>
+      <c r="C45" s="98" t="s">
+        <v>50</v>
+      </c>
+      <c r="D45" s="83">
+        <v>-3.7892999999999999</v>
+      </c>
+      <c r="E45" s="43">
+        <v>-0.0030870454999999998</v>
+      </c>
+      <c r="F45" s="28">
+        <f t="shared" si="2"/>
+        <v>-1.1267716074999998</v>
+      </c>
+      <c r="G45" s="55">
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="H45" s="55"/>
+      <c r="I45" s="55">
+        <v>2.3420000000000001</v>
+      </c>
+      <c r="J45" s="106">
+        <v>1.0181</v>
+      </c>
+      <c r="K45" s="107">
+        <v>0.0014598568000000001</v>
+      </c>
+      <c r="L45" s="108">
+        <f t="shared" si="3"/>
+        <v>0.53284773200000002</v>
+      </c>
+      <c r="M45" s="85">
+        <v>0.042999999999999997</v>
+      </c>
+      <c r="N45" s="85"/>
+      <c r="O45" s="43">
+        <v>0.71899999999999997</v>
+      </c>
+      <c r="P45" s="74"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="C46" s="18"/>
-      <c r="H46" s="11"/>
-      <c r="I46" s="18"/>
-      <c r="N46" s="18"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="29"/>
+      <c r="C46" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="D46" s="48" t="s">
+        <v>73</v>
+      </c>
+      <c r="E46" s="33">
+        <v>-0.0023010446000000001</v>
+      </c>
+      <c r="F46" s="28">
+        <f t="shared" si="2"/>
+        <v>-0.83988127900000009</v>
+      </c>
+      <c r="G46" s="59">
+        <v>0.47099999999999997</v>
+      </c>
+      <c r="H46" s="59"/>
+      <c r="I46" s="59">
+        <v>1.843</v>
+      </c>
+      <c r="J46" s="101">
+        <v>1.3554999999999999</v>
+      </c>
+      <c r="K46" s="109">
+        <v>0.0012591422000000001</v>
+      </c>
+      <c r="L46" s="28">
+        <f t="shared" si="3"/>
+        <v>0.45958690300000005</v>
+      </c>
+      <c r="M46" s="90">
+        <v>0.040000000000000001</v>
+      </c>
+      <c r="N46" s="89"/>
+      <c r="O46" s="33">
+        <v>0.625</v>
+      </c>
+      <c r="P46" s="74"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="C47" s="18"/>
-      <c r="H47" s="11"/>
-      <c r="I47" s="18"/>
-      <c r="N47" s="18"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="29"/>
+      <c r="C47" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D47" s="103">
+        <v>-3.3016999999999999</v>
+      </c>
+      <c r="E47" s="33">
+        <v>-0.0020410418999999998</v>
+      </c>
+      <c r="F47" s="28">
+        <f t="shared" si="2"/>
+        <v>-0.74498029349999995</v>
+      </c>
+      <c r="G47" s="59">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="H47" s="59"/>
+      <c r="I47" s="59">
+        <v>1.7769999999999999</v>
+      </c>
+      <c r="J47" s="99">
+        <v>0.64480000000000004</v>
+      </c>
+      <c r="K47" s="89">
+        <v>0.00044386339999999999</v>
+      </c>
+      <c r="L47" s="28">
+        <f t="shared" si="3"/>
+        <v>0.162010141</v>
+      </c>
+      <c r="M47" s="88">
+        <v>0.0089999999999999993</v>
+      </c>
+      <c r="N47" s="88"/>
+      <c r="O47" s="33">
+        <v>0.46000000000000002</v>
+      </c>
+      <c r="P47" s="74"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="C48" s="18"/>
-      <c r="H48" s="11"/>
-      <c r="I48" s="18"/>
-      <c r="N48" s="18"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="35"/>
+      <c r="C48" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="D48" s="65">
+        <v>-4.2149999999999999</v>
+      </c>
+      <c r="E48" s="52">
+        <v>-0.0023864212000000002</v>
+      </c>
+      <c r="F48" s="28">
+        <f t="shared" si="2"/>
+        <v>-0.87104373800000001</v>
+      </c>
+      <c r="G48" s="67">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="H48" s="67"/>
+      <c r="I48" s="51">
+        <v>1.9239999999999999</v>
+      </c>
+      <c r="J48" s="110">
+        <v>1.0782</v>
+      </c>
+      <c r="K48" s="111">
+        <v>0.00012862630000000001</v>
+      </c>
+      <c r="L48" s="88">
+        <f t="shared" si="3"/>
+        <v>0.0469485995</v>
+      </c>
+      <c r="M48" s="52">
+        <v>0.045999999999999999</v>
+      </c>
+      <c r="N48" s="66"/>
+      <c r="O48" s="112">
+        <v>0.17000000000000001</v>
+      </c>
+      <c r="P48" s="74"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="C49" s="18"/>
-      <c r="H49" s="11"/>
-      <c r="I49" s="18"/>
-      <c r="N49" s="18"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="26">
+        <v>4</v>
+      </c>
+      <c r="C49" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" s="54"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="55"/>
+      <c r="H49" s="55"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="57"/>
+      <c r="L49" s="44"/>
+      <c r="M49" s="44"/>
+      <c r="N49" s="44"/>
+      <c r="O49" s="43"/>
+      <c r="P49" s="74"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="C50" s="18"/>
-      <c r="H50" s="11"/>
-      <c r="I50" s="18"/>
-      <c r="N50" s="18"/>
+      <c r="A50" s="32"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="D50" s="48"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="59"/>
+      <c r="I50" s="56"/>
+      <c r="J50" s="114"/>
+      <c r="K50" s="69"/>
+      <c r="L50" s="28"/>
+      <c r="M50" s="28"/>
+      <c r="N50" s="28"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="74"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="C51" s="18"/>
-      <c r="H51" s="11"/>
-      <c r="I51" s="18"/>
-      <c r="N51" s="18"/>
+      <c r="A51" s="32"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D51" s="48"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="59"/>
+      <c r="H51" s="59"/>
+      <c r="I51" s="56"/>
+      <c r="J51" s="48"/>
+      <c r="K51" s="28"/>
+      <c r="L51" s="28"/>
+      <c r="M51" s="28"/>
+      <c r="N51" s="28"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="74"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="C52" s="18"/>
-      <c r="H52" s="11"/>
-      <c r="I52" s="18"/>
-      <c r="N52" s="18"/>
+      <c r="A52" s="70"/>
+      <c r="B52" s="35"/>
+      <c r="C52" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D52" s="65"/>
+      <c r="E52" s="66"/>
+      <c r="F52" s="66"/>
+      <c r="G52" s="67"/>
+      <c r="H52" s="67"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="65"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="66"/>
+      <c r="N52" s="66"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="74"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="C53" s="18"/>
-      <c r="H53" s="11"/>
-      <c r="I53" s="18"/>
-      <c r="N53" s="18"/>
+      <c r="A53" s="115"/>
+      <c r="B53" s="115"/>
+      <c r="C53" s="116"/>
+      <c r="D53" s="117"/>
+      <c r="E53" s="115"/>
+      <c r="F53" s="115"/>
+      <c r="G53" s="115"/>
+      <c r="H53" s="118"/>
+      <c r="I53" s="116"/>
+      <c r="J53" s="117"/>
+      <c r="K53" s="115"/>
+      <c r="L53" s="115"/>
+      <c r="M53" s="115"/>
+      <c r="N53" s="116"/>
+      <c r="O53" s="117"/>
+      <c r="P53" s="74"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
+      <c r="A54" s="74"/>
+      <c r="B54" s="74"/>
       <c r="C54" s="18"/>
+      <c r="D54" s="119"/>
+      <c r="E54" s="74"/>
+      <c r="F54" s="74"/>
+      <c r="G54" s="74"/>
       <c r="H54" s="11"/>
       <c r="I54" s="18"/>
+      <c r="J54" s="119"/>
+      <c r="K54" s="74"/>
+      <c r="L54" s="74"/>
+      <c r="M54" s="74"/>
       <c r="N54" s="18"/>
+      <c r="O54" s="119"/>
+      <c r="P54" s="74"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="C55" s="18"/>
@@ -11077,7 +12037,7 @@
       <c r="N1000" s="18"/>
     </row>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="93">
     <mergeCell ref="D1:F1"/>
     <mergeCell ref="J1:O1"/>
     <mergeCell ref="E2:F2"/>
@@ -11123,10 +12083,98 @@
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="M22:N22"/>
     <mergeCell ref="G23:H23"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="J30:O30"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="M31:N31"/>
+    <mergeCell ref="A33:A44"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="M33:N33"/>
+    <mergeCell ref="G34:H34"/>
+    <mergeCell ref="M34:N34"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="M35:N35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="M36:N36"/>
+    <mergeCell ref="B37:B40"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="M38:N38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="M39:N39"/>
+    <mergeCell ref="B41:B44"/>
+    <mergeCell ref="G41:H41"/>
+    <mergeCell ref="M41:N41"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="M42:N42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="M43:N43"/>
+    <mergeCell ref="A45:A52"/>
+    <mergeCell ref="B45:B48"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="M46:N46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="M47:N47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="M48:N48"/>
+    <mergeCell ref="B49:B52"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="M49:N49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="M50:N50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="M51:N51"/>
+    <mergeCell ref="G52:H52"/>
   </mergeCells>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="4294967295" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="2147483648" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="2" id="{008E00BB-00B0-4C57-97E0-002B00E400AE}">
+            <xm:f>$L$16:$L$19=MIN($L$16:$L$19)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF006100"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFC6EFCE"/>
+                  <bgColor rgb="FFC6EFCE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L16:L19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="expression" priority="1" id="{004900BB-0075-45ED-8969-00AC00110068}">
+            <xm:f>$L$16:$L$19=MAX($L$16:$L$19)</xm:f>
+            <x14:dxf>
+              <font>
+                <color rgb="FF9C0006"/>
+              </font>
+              <fill>
+                <patternFill patternType="solid">
+                  <fgColor rgb="FFFFC7CE"/>
+                  <bgColor rgb="FFFFC7CE"/>
+                </patternFill>
+              </fill>
+            </x14:dxf>
+          </x14:cfRule>
+          <xm:sqref>L16:L19</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>